--- a/regionseng/10/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/10/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -88,13 +88,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> 2022 *</t>
+    <t xml:space="preserve"> 2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -284,13 +284,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -375,8 +378,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal_Sheet5" xfId="1"/>
@@ -681,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -698,7 +702,7 @@
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.899999999999999" customHeight="1">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -894,19 +898,19 @@
         <v>2016</v>
       </c>
       <c r="B12" s="27">
-        <v>277866.39949999982</v>
+        <v>277358.7561</v>
       </c>
       <c r="C12" s="27">
-        <v>414977.55879999988</v>
+        <v>415497.3086999997</v>
       </c>
       <c r="D12" s="27">
-        <v>407181.59450000012</v>
+        <v>407304.85979999992</v>
       </c>
       <c r="E12" s="27">
-        <v>315970.79060000007</v>
+        <v>315851.56399999984</v>
       </c>
       <c r="F12" s="28">
-        <v>1415996.3433999997</v>
+        <v>1416012.4885999993</v>
       </c>
       <c r="H12" s="9"/>
     </row>
@@ -915,19 +919,19 @@
         <v>2017</v>
       </c>
       <c r="B13" s="20">
-        <v>312050.61520000017</v>
+        <v>312135.88819999999</v>
       </c>
       <c r="C13" s="20">
-        <v>306892.57630000002</v>
+        <v>306868.2694999993</v>
       </c>
       <c r="D13" s="20">
-        <v>446013.46900000004</v>
+        <v>445992.50800000026</v>
       </c>
       <c r="E13" s="20">
-        <v>469514.90290000022</v>
+        <v>469474.89640000026</v>
       </c>
       <c r="F13" s="21">
-        <v>1534471.5634000003</v>
+        <v>1534471.5620999997</v>
       </c>
       <c r="H13" s="9"/>
     </row>
@@ -936,19 +940,19 @@
         <v>2018</v>
       </c>
       <c r="B14" s="20">
-        <v>290643.23119999981</v>
+        <v>290862.10679999995</v>
       </c>
       <c r="C14" s="20">
-        <v>322645.60079999943</v>
+        <v>322941.56489999994</v>
       </c>
       <c r="D14" s="20">
-        <v>272562.69420000003</v>
+        <v>272509.9392000002</v>
       </c>
       <c r="E14" s="20">
-        <v>186970.87639999986</v>
+        <v>186981.83029999997</v>
       </c>
       <c r="F14" s="21">
-        <v>1072822.4025999992</v>
+        <v>1073295.4412</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -956,19 +960,19 @@
         <v>2019</v>
       </c>
       <c r="B15" s="20">
-        <v>245959.36229999998</v>
+        <v>248656.49940000006</v>
       </c>
       <c r="C15" s="20">
-        <v>147743.3171999999</v>
+        <v>149978.39889999983</v>
       </c>
       <c r="D15" s="20">
-        <v>270746.73770000017</v>
+        <v>272735.4227000004</v>
       </c>
       <c r="E15" s="20">
-        <v>283070.13120000012</v>
+        <v>288508.14310000039</v>
       </c>
       <c r="F15" s="21">
-        <v>947519.5484000002</v>
+        <v>959878.46410000068</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -976,19 +980,19 @@
         <v>2020</v>
       </c>
       <c r="B16" s="20">
-        <v>139749.23410000003</v>
+        <v>143579.76029999985</v>
       </c>
       <c r="C16" s="20">
-        <v>138214.57330000013</v>
+        <v>141006.79049999986</v>
       </c>
       <c r="D16" s="20">
-        <v>239795.79970000018</v>
+        <v>242472.47980000012</v>
       </c>
       <c r="E16" s="20">
-        <v>-177559.95230000035</v>
+        <v>-194512.66209999975</v>
       </c>
       <c r="F16" s="21">
-        <v>340199.65480000002</v>
+        <v>332546.3685000001</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -996,19 +1000,19 @@
         <v>2021</v>
       </c>
       <c r="B17" s="20">
-        <v>121102.12660000006</v>
+        <v>123211.89010000005</v>
       </c>
       <c r="C17" s="20">
-        <v>272158.42820000002</v>
+        <v>275350.22609999968</v>
       </c>
       <c r="D17" s="20">
-        <v>229630.55289999995</v>
+        <v>241920.70419999986</v>
       </c>
       <c r="E17" s="20">
-        <v>420545.86109999981</v>
+        <v>401079.2586999996</v>
       </c>
       <c r="F17" s="21">
-        <v>1043436.9687999999</v>
+        <v>1041562.0790999993</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -1032,19 +1036,23 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
+      <c r="A18" s="1">
+        <v>2022</v>
       </c>
       <c r="B18" s="20">
-        <v>457757.82500000088</v>
+        <v>498032.84350000101</v>
       </c>
       <c r="C18" s="20">
-        <v>238502.39959999998</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+        <v>293385.37690000032</v>
+      </c>
+      <c r="D18" s="20">
+        <v>854708.33789999946</v>
+      </c>
+      <c r="E18" s="20">
+        <v>386057.58750000014</v>
+      </c>
       <c r="F18" s="21">
-        <v>696260.22460000089</v>
+        <v>2032184.145800001</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -1068,14 +1076,24 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="20">
+        <v>546867.70180000039</v>
+      </c>
+      <c r="C19" s="20">
+        <v>450891.69210000033</v>
+      </c>
+      <c r="D19" s="20">
+        <v>331040.91239999956</v>
+      </c>
+      <c r="E19" s="20">
+        <v>373214.2114000002</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1702014.5177000004</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -1098,22 +1116,28 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="20">
+        <v>125731.34790000018</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21">
+        <v>125731.34790000018</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -1126,24 +1150,24 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="A21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
@@ -1156,24 +1180,22 @@
       <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -1186,8 +1208,8 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="18" t="s">
-        <v>8</v>
+      <c r="A23" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1217,7 +1239,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1247,7 +1269,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1276,7 +1298,9 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="12"/>
+      <c r="A26" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -1303,25 +1327,25 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
     </row>
-    <row r="27" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A27" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+    <row r="27" spans="1:26">
+      <c r="A27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
@@ -1334,22 +1358,22 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
@@ -1361,12 +1385,70 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
     </row>
+    <row r="29" spans="1:26" ht="48.75" customHeight="1">
+      <c r="A29" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regionseng/10/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/10/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -688,13 +688,14 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="3" customWidth="1"/>
-    <col min="2" max="6" width="13.140625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="13.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="3"/>
     <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
     <col min="9" max="12" width="9.140625" style="3"/>
@@ -702,7 +703,7 @@
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" customHeight="1">
+    <row r="1" spans="1:17" ht="21" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="20">
-        <v>546867.70180000039</v>
+        <v>343676.77580000012</v>
       </c>
       <c r="C19" s="20">
         <v>450891.69210000033</v>
@@ -1092,7 +1093,7 @@
         <v>373214.2114000002</v>
       </c>
       <c r="F19" s="21">
-        <v>1702014.5177000004</v>
+        <v>1498823.5917000002</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -1122,11 +1123,13 @@
       <c r="B20" s="20">
         <v>125731.34790000018</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="20">
+        <v>512712.7</v>
+      </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21">
-        <v>125731.34790000018</v>
+        <v>638444.04790000024</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
